--- a/Codes/Multiple ANN models/Best_Models_from_C1_and_C2/Best_Model_details_C1onC2.xlsx
+++ b/Codes/Multiple ANN models/Best_Models_from_C1_and_C2/Best_Model_details_C1onC2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Model</t>
   </si>
@@ -52,19 +52,25 @@
     <t>%error(Ksym_Lam)</t>
   </si>
   <si>
-    <t>ANN(2HL-16,17 Nodes)</t>
-  </si>
-  <si>
-    <t>ANN(2HL-16,18 Nodes)</t>
-  </si>
-  <si>
-    <t>ANN(2HL-18,17 Nodes)</t>
-  </si>
-  <si>
-    <t>ANN(2HL-18,20 Nodes)</t>
+    <t>ANN(2HL-14,20 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-15,14 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-17,16 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-17,18 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-19,16 Nodes)</t>
   </si>
   <si>
     <t>ANN(2HL-19,18 Nodes)</t>
+  </si>
+  <si>
+    <t>ANN(2HL-19,20 Nodes)</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -468,43 +474,43 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2">
-        <v>13.96617686920821</v>
+        <v>14.97766183632132</v>
       </c>
       <c r="D2">
-        <v>0.02150003230432063</v>
+        <v>0.0196565875068293</v>
       </c>
       <c r="E2">
-        <v>0.2047322548754273</v>
+        <v>0.1994921902261521</v>
       </c>
       <c r="F2">
-        <v>24.18925198261502</v>
+        <v>25.94129678204609</v>
       </c>
       <c r="G2">
-        <v>0.9547937708119657</v>
+        <v>0.9568108120973831</v>
       </c>
       <c r="H2">
         <v>0.8305331942045113</v>
       </c>
       <c r="I2">
-        <v>0.8359238427681156</v>
+        <v>0.8324456631738312</v>
       </c>
       <c r="J2">
-        <v>0.006490587734747268</v>
+        <v>0.002302700220370625</v>
       </c>
       <c r="K2">
         <v>0.8566798373674943</v>
       </c>
       <c r="L2">
-        <v>0.8608786577584859</v>
+        <v>0.8621402850447035</v>
       </c>
       <c r="M2">
-        <v>0.004901271406006525</v>
+        <v>0.006373965440798411</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -515,160 +521,242 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>14.55082357289358</v>
+        <v>14.90953999469957</v>
       </c>
       <c r="D3">
-        <v>0.02188695939810768</v>
+        <v>0.02519401325951733</v>
       </c>
       <c r="E3">
-        <v>0.2151519506573918</v>
+        <v>0.1983441992264328</v>
       </c>
       <c r="F3">
-        <v>25.20183784067272</v>
+        <v>25.82330678671821</v>
       </c>
       <c r="G3">
-        <v>0.9511386957363325</v>
+        <v>0.9500732051899409</v>
       </c>
       <c r="H3">
         <v>0.8305331942045113</v>
       </c>
       <c r="I3">
-        <v>0.8327028629491161</v>
+        <v>0.8307020771951377</v>
       </c>
       <c r="J3">
-        <v>0.002612380528249565</v>
+        <v>0.0002033428546923967</v>
       </c>
       <c r="K3">
         <v>0.8566798373674943</v>
       </c>
       <c r="L3">
-        <v>0.8606237884217683</v>
+        <v>0.8619133396454793</v>
       </c>
       <c r="M3">
-        <v>0.004603763135588044</v>
+        <v>0.006109052705228993</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="1">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
       </c>
       <c r="C4">
-        <v>14.3380870238199</v>
+        <v>14.11485799363989</v>
       </c>
       <c r="D4">
-        <v>0.0190635812588373</v>
+        <v>0.01955891295117575</v>
       </c>
       <c r="E4">
-        <v>0.2078996581607253</v>
+        <v>0.204703539792901</v>
       </c>
       <c r="F4">
-        <v>24.83341766289739</v>
+        <v>24.44678634200373</v>
       </c>
       <c r="G4">
-        <v>0.9564131914986452</v>
+        <v>0.956884842150962</v>
       </c>
       <c r="H4">
         <v>0.8305331942045113</v>
       </c>
       <c r="I4">
-        <v>0.8333401902920569</v>
+        <v>0.8314579319455953</v>
       </c>
       <c r="J4">
-        <v>0.003379751835486945</v>
+        <v>0.001113426588529846</v>
       </c>
       <c r="K4">
         <v>0.8566798373674943</v>
       </c>
       <c r="L4">
-        <v>0.8610987084008075</v>
+        <v>0.8613865444695308</v>
       </c>
       <c r="M4">
-        <v>0.005158135910951282</v>
+        <v>0.005494126156277689</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5">
-        <v>14.19636903930732</v>
+        <v>14.00944728863614</v>
       </c>
       <c r="D5">
-        <v>0.01760515319541675</v>
+        <v>0.0230771304572704</v>
       </c>
       <c r="E5">
-        <v>0.1985421000894003</v>
+        <v>0.2119809145174359</v>
       </c>
       <c r="F5">
-        <v>24.58802458095575</v>
+        <v>24.26413756013499</v>
       </c>
       <c r="G5">
-        <v>0.960228224169264</v>
+        <v>0.9510604696987351</v>
       </c>
       <c r="H5">
         <v>0.8305331942045113</v>
       </c>
       <c r="I5">
-        <v>0.8331445793985282</v>
+        <v>0.8333274768543103</v>
       </c>
       <c r="J5">
-        <v>0.003144227361698675</v>
+        <v>0.003364444274229582</v>
       </c>
       <c r="K5">
         <v>0.8566798373674943</v>
       </c>
       <c r="L5">
-        <v>0.8624686302432595</v>
+        <v>0.8562385170549937</v>
       </c>
       <c r="M5">
-        <v>0.006757241881113541</v>
+        <v>0.0005151519777292761</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6">
-        <v>15.0965454764834</v>
+        <v>14.07707741717936</v>
       </c>
       <c r="D6">
-        <v>0.01800059733112618</v>
+        <v>0.02070188394352684</v>
       </c>
       <c r="E6">
-        <v>0.2074003787346325</v>
+        <v>0.1985064035219516</v>
       </c>
       <c r="F6">
-        <v>26.14715504662004</v>
+        <v>24.3813964421143</v>
       </c>
       <c r="G6">
-        <v>0.9566447979404461</v>
+        <v>0.9570052578144018</v>
       </c>
       <c r="H6">
         <v>0.8305331942045113</v>
       </c>
       <c r="I6">
-        <v>0.8340192597171786</v>
+        <v>0.8283210172955691</v>
       </c>
       <c r="J6">
-        <v>0.00419738252124438</v>
+        <v>0.002663562304768684</v>
       </c>
       <c r="K6">
         <v>0.8566798373674943</v>
       </c>
       <c r="L6">
-        <v>0.8630984336537355</v>
+        <v>0.8614416923324251</v>
       </c>
       <c r="M6">
-        <v>0.00749240965675696</v>
+        <v>0.005558500103800201</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>14.43398277484873</v>
+      </c>
+      <c r="D7">
+        <v>0.02001350559100407</v>
+      </c>
+      <c r="E7">
+        <v>0.2052919306225131</v>
+      </c>
+      <c r="F7">
+        <v>24.99954061411335</v>
+      </c>
+      <c r="G7">
+        <v>0.9558272651872618</v>
+      </c>
+      <c r="H7">
+        <v>0.8305331942045113</v>
+      </c>
+      <c r="I7">
+        <v>0.8329472191054043</v>
+      </c>
+      <c r="J7">
+        <v>0.002906596530684237</v>
+      </c>
+      <c r="K7">
+        <v>0.8566798373674943</v>
+      </c>
+      <c r="L7">
+        <v>0.8590529495708403</v>
+      </c>
+      <c r="M7">
+        <v>0.002770127298242939</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>14.04530482976033</v>
+      </c>
+      <c r="D8">
+        <v>0.01732375264552129</v>
+      </c>
+      <c r="E8">
+        <v>0.1935434560399775</v>
+      </c>
+      <c r="F8">
+        <v>24.32640549076017</v>
+      </c>
+      <c r="G8">
+        <v>0.9617869969330447</v>
+      </c>
+      <c r="H8">
+        <v>0.8305331942045113</v>
+      </c>
+      <c r="I8">
+        <v>0.8297178064735136</v>
+      </c>
+      <c r="J8">
+        <v>0.0009817641687142262</v>
+      </c>
+      <c r="K8">
+        <v>0.8566798373674943</v>
+      </c>
+      <c r="L8">
+        <v>0.8563907633913891</v>
+      </c>
+      <c r="M8">
+        <v>0.0003374352511826652</v>
       </c>
     </row>
   </sheetData>
